--- a/Backlogxlsx.xlsx
+++ b/Backlogxlsx.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED32DA83-5E48-4B52-A64C-D9146F54EE83}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E4B9FA-EEC1-4A55-B04D-5264204EC75F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Story</t>
   </si>
@@ -45,12 +45,36 @@
   </si>
   <si>
     <t xml:space="preserve">                               ToDo List</t>
+  </si>
+  <si>
+    <t>als een gebruiker wil ik me emoties handmatig kunnen kiezen zodat op een eenvoudige mobiel mijn emoties kan ingeven</t>
+  </si>
+  <si>
+    <t>als een gebruiker wil ik mijn emoties kunnen tonen via gezichtherkenning zodat het automatisch in de telefoon komt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">als een gebruiker wil ik weten waar ik terecht kan komen met mijn probleem zodat ik kan praten met mensen met de zelfde problemen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">als een gebruiker wil ik weten hoe ik in contact kan komen met 113 zodat ik zo snel mogelijk hulp krijg met mijn probleem </t>
+  </si>
+  <si>
+    <t>als een gebruiker wil ik aan hand van emoties motiverende zinnen kunnen zien zodat ik niet onderwerpen krijg dat buiten mijn onderwerp komt</t>
+  </si>
+  <si>
+    <t>als een gebruiker wil ik informatie kunnen vinden over suïcidaliteit zodat ik meer te weten kan komen over suicidaliteit</t>
+  </si>
+  <si>
+    <t>als een gebruiker wil ik overgehaald worden door motiverende zinnen zodat ik zelfmoord neigingen kan mijden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,21 +509,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="61.90625" customWidth="1"/>
+    <col min="1" max="1" width="139.26953125" customWidth="1"/>
     <col min="2" max="2" width="10.7265625" customWidth="1"/>
     <col min="3" max="3" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:3" ht="5.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>4</v>
@@ -519,44 +543,90 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -577,8 +647,14 @@
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="7">
+        <f>SUM(B4:B14)</f>
+        <v>28</v>
+      </c>
+      <c r="C15" s="7">
+        <f>SUM(C4:C14)</f>
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
